--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/Task2_48hr_48well_discon_170901_135527_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/Task2_48hr_48well_discon_170901_135527_wellNames.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1440" windowWidth="24560" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="640" windowWidth="10500" windowHeight="13240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Well</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>L1D5-100</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -600,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -617,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -634,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -651,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -668,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -685,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -695,6 +698,9 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -716,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -733,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -750,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -767,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -784,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -801,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -818,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -828,6 +834,9 @@
       <c r="A17" t="s">
         <v>21</v>
       </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
       <c r="C17">
         <v>2</v>
       </c>
@@ -849,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -866,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -883,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -917,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -934,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -951,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -961,6 +970,9 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
       <c r="C25">
         <v>3</v>
       </c>
@@ -975,6 +987,9 @@
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
       <c r="C26">
         <v>4</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1013,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1030,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1047,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1064,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1081,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1091,6 +1106,9 @@
       <c r="A33" t="s">
         <v>37</v>
       </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
       <c r="C33">
         <v>5</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1129,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1146,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1156,6 +1174,9 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
       <c r="C37">
         <v>6</v>
       </c>
@@ -1177,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1194,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1211,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1221,6 +1242,9 @@
       <c r="A41" t="s">
         <v>45</v>
       </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
       <c r="C41">
         <v>7</v>
       </c>
@@ -1242,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1259,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1276,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1286,7 +1310,9 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C45">
         <v>8</v>
       </c>
